--- a/Excel stoich sheets/glu_to_acetate_ratios_new.xlsx
+++ b/Excel stoich sheets/glu_to_acetate_ratios_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marit\Documents\LST\MSc\MEP\Scipy MDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marit\Documents\LST\MSc\MEP\Scipy MDF\MDF-ECM\Excel stoich sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC201E6-380A-40DE-BA16-F0CECE2BB80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200D03B-B8EC-48E6-AADB-91FDBAD52DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A62B385-E7CC-459D-A185-A082E729E0A0}"/>
   </bookViews>
@@ -718,7 +718,7 @@
   <dimension ref="A1:AA213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
